--- a/number-prediction/document/calculation.xlsx
+++ b/number-prediction/document/calculation.xlsx
@@ -441,7 +441,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -455,7 +455,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -551,23 +551,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -590,20 +586,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -615,7 +607,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -623,7 +615,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -811,8 +803,8 @@
   </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -839,7 +831,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -859,7 +851,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>4.32</v>
       </c>
@@ -879,7 +871,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,7 +880,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -903,7 +895,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
         <f aca="false">ROUND(ROUND(_xlfn.ORG.LIBREOFFICE.RAND.NV(),2)*10,2)</f>
         <v>3.2</v>
@@ -920,7 +912,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="n">
         <f aca="false">ROUND(ROUND(_xlfn.ORG.LIBREOFFICE.RAND.NV(),2)*10,2)</f>
         <v>0.1</v>
@@ -937,7 +929,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
         <f aca="false">ROUND(ROUND(_xlfn.ORG.LIBREOFFICE.RAND.NV(),2)*10,2)</f>
         <v>7.1</v>
@@ -954,7 +946,7 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
         <f aca="false">ROUND(ROUND(_xlfn.ORG.LIBREOFFICE.RAND.NV(),2)*10,2)</f>
         <v>2.6</v>
@@ -971,7 +963,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="n">
         <f aca="false">ROUND(ROUND(_xlfn.ORG.LIBREOFFICE.RAND.NV(),2)*10,2)</f>
         <v>0.7</v>
@@ -988,7 +980,7 @@
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="n">
         <f aca="false">ROUND(ROUND(_xlfn.ORG.LIBREOFFICE.RAND.NV(),2)*10,2)</f>
         <v>0.7</v>
@@ -1011,7 +1003,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1012,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
         <v>10</v>
       </c>
@@ -1035,7 +1027,7 @@
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="n">
         <f aca="false">ROUND(AVERAGE(B20,C20,D20),2)</f>
         <v>34.33</v>
@@ -1054,7 +1046,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="n">
         <f aca="false">ROUND(AVERAGE(B21,C21,D21),2)</f>
         <v>37.33</v>
@@ -1073,7 +1065,7 @@
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
         <f aca="false">ROUND(AVERAGE(B22,C22,D22),2)</f>
         <v>31.33</v>
@@ -1092,7 +1084,7 @@
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="n">
         <f aca="false">ROUND(AVERAGE(B23,C23,D23),2)</f>
         <v>28</v>
@@ -1111,7 +1103,7 @@
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="n">
         <f aca="false">ROUND(AVERAGE(B24,C24,D24),2)</f>
         <v>22.33</v>
@@ -1130,7 +1122,7 @@
       </c>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="n">
         <f aca="false">ROUND(AVERAGE(B25,C25,D25),2)</f>
         <v>28.33</v>
@@ -1155,7 +1147,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1156,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(A20:A25), 2)</f>
         <v>30.28</v>
@@ -1189,7 +1181,7 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1198,7 +1190,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(A20:A25)/100,2)</f>
         <v>0.3</v>
@@ -1231,7 +1223,7 @@
       <c r="D35" s="17"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1232,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="n">
         <f aca="false">C10</f>
         <v>0.05</v>
@@ -1273,7 +1265,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
@@ -1282,7 +1274,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="n">
         <f aca="false">IF(A33&gt;A37,1,0)</f>
         <v>1</v>
@@ -1307,7 +1299,7 @@
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -1316,7 +1308,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="str">
         <f aca="false">IF(A41=0,"Down","Up")</f>
         <v>Up</v>
@@ -1341,7 +1333,7 @@
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1342,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1357,7 @@
       </c>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="n">
         <f aca="false">A20</f>
         <v>34.33</v>
@@ -1384,7 +1376,7 @@
       </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="n">
         <f aca="false">A21</f>
         <v>37.33</v>
@@ -1403,7 +1395,7 @@
       </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="n">
         <f aca="false">A22</f>
         <v>31.33</v>
@@ -1422,7 +1414,7 @@
       </c>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="n">
         <f aca="false">A23</f>
         <v>28</v>
@@ -1441,7 +1433,7 @@
       </c>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
         <f aca="false">A24</f>
         <v>22.33</v>
@@ -1460,7 +1452,7 @@
       </c>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="n">
         <f aca="false">A25</f>
         <v>28.33</v>
@@ -1485,7 +1477,7 @@
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>18</v>
       </c>
@@ -1494,7 +1486,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="n">
         <f aca="false">ABS(ROUND(A50-A51,2))</f>
         <v>3</v>
@@ -1514,7 +1506,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="24"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="n">
         <f aca="false">ABS(ROUND(A51-A52,2))</f>
         <v>6</v>
@@ -1533,7 +1525,7 @@
       </c>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="n">
         <f aca="false">ABS(ROUND(A52-A53,2))</f>
         <v>3.33</v>
@@ -1552,7 +1544,7 @@
       </c>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="n">
         <f aca="false">ABS(ROUND(A53-A54,2))</f>
         <v>5.67</v>
@@ -1571,7 +1563,7 @@
       </c>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="n">
         <f aca="false">ABS(ROUND(A54-A55,2))</f>
         <v>6</v>
@@ -1590,7 +1582,7 @@
       </c>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="n">
         <f aca="false">ABS(ROUND(A55-A55,2))</f>
         <v>0</v>
@@ -1615,7 +1607,7 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
@@ -1624,7 +1616,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="n">
         <f aca="false">ABS(ROUND(A50-A50,2))</f>
         <v>0</v>
@@ -1644,7 +1636,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="24"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="23" t="n">
         <f aca="false">ABS(ROUND(A51-A50,2))</f>
         <v>3</v>
@@ -1663,7 +1655,7 @@
       </c>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="n">
         <f aca="false">ABS(ROUND(A52-A51,2))</f>
         <v>6</v>
@@ -1682,7 +1674,7 @@
       </c>
       <c r="E70" s="10"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="n">
         <f aca="false">ABS(ROUND(A53-A52,2))</f>
         <v>3.33</v>
@@ -1701,7 +1693,7 @@
       </c>
       <c r="E71" s="10"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="n">
         <f aca="false">ABS(ROUND(A54-A53,2))</f>
         <v>5.67</v>
@@ -1720,7 +1712,7 @@
       </c>
       <c r="E72" s="10"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="n">
         <f aca="false">ABS(ROUND(A55-A54,2))</f>
         <v>6</v>
@@ -1749,7 +1741,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="10"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
         <v>14</v>
       </c>
@@ -1758,7 +1750,7 @@
       <c r="D76" s="3"/>
       <c r="E76" s="10"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="n">
         <f aca="false">ROUND(AVERAGE(A59:A64),2)</f>
         <v>4</v>
@@ -1788,7 +1780,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="24"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
         <v>14</v>
       </c>
@@ -1798,7 +1790,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="24"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="18" t="n">
         <f aca="false">ROUND(AVERAGE(A59:A64)/100,2)</f>
         <v>0.04</v>
@@ -1831,7 +1823,7 @@
       <c r="D83" s="9"/>
       <c r="E83" s="10"/>
     </row>
-    <row r="84" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="27" t="s">
         <v>20</v>
       </c>
@@ -1840,7 +1832,7 @@
       <c r="D84" s="27"/>
       <c r="E84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="n">
         <f aca="false">C11</f>
         <v>0.05</v>
@@ -1873,7 +1865,7 @@
       <c r="D87" s="9"/>
       <c r="E87" s="28"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>16</v>
       </c>
@@ -1882,7 +1874,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="28"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="19" t="n">
         <f aca="false">IF(A81&gt;A85,1,0)</f>
         <v>0</v>
@@ -1907,7 +1899,7 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="10"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
         <v>17</v>
       </c>
@@ -1916,7 +1908,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="10"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="str">
         <f aca="false">IF(A89=0,"Down","Up")</f>
         <v>Down</v>
@@ -1978,7 +1970,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2004,27 +1996,27 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+    <row r="3" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+    <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
         <v>4.32</v>
       </c>
@@ -2038,87 +2030,87 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+    <row r="7" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+    <row r="8" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!A10</f>
         <v>3.2</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!B10</f>
         <v>13</v>
       </c>
-      <c r="C9" s="32" t="n">
+      <c r="C9" s="31" t="n">
         <v>0.05</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="32" t="n">
         <v>20</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!A11</f>
         <v>0.1</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!B11</f>
         <v>16</v>
       </c>
-      <c r="C10" s="34" t="n">
+      <c r="C10" s="33" t="n">
         <v>0.05</v>
       </c>
-      <c r="D10" s="35" t="n">
+      <c r="D10" s="34" t="n">
         <v>21</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!A12</f>
         <v>7.1</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!B12</f>
         <v>10</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D11" s="36" t="n">
+      <c r="D11" s="35" t="n">
         <v>22</v>
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!A13</f>
         <v>2.6</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!B13</f>
         <v>2</v>
       </c>
@@ -2130,12 +2122,12 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!A14</f>
         <v>0.7</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!B14</f>
         <v>1</v>
       </c>
@@ -2147,12 +2139,12 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!A15</f>
         <v>0.7</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="12" t="n">
         <f aca="false">'Calculation - Sheet 1'!B15</f>
         <v>7</v>
       </c>
@@ -2174,155 +2166,151 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+    <row r="17" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
+    <row r="18" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="n">
         <f aca="false">ROUND(AVERAGE(B19,C19,D19),2)</f>
         <v>34</v>
       </c>
-      <c r="B19" s="33" t="n">
+      <c r="B19" s="32" t="n">
         <f aca="false">D9+B9</f>
         <v>33</v>
       </c>
-      <c r="C19" s="35" t="n">
+      <c r="C19" s="34" t="n">
         <f aca="false">D10+B9</f>
         <v>34</v>
       </c>
-      <c r="D19" s="36" t="n">
+      <c r="D19" s="35" t="n">
         <f aca="false">D11+B9</f>
         <v>35</v>
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="n">
         <f aca="false">ROUND(AVERAGE(B20,C20,D20),2)</f>
         <v>37</v>
       </c>
-      <c r="B20" s="33" t="n">
+      <c r="B20" s="32" t="n">
         <f aca="false">D9+B10</f>
         <v>36</v>
       </c>
-      <c r="C20" s="35" t="n">
+      <c r="C20" s="34" t="n">
         <f aca="false">D10+B10</f>
         <v>37</v>
       </c>
-      <c r="D20" s="36" t="n">
+      <c r="D20" s="35" t="n">
         <f aca="false">D11+B10</f>
         <v>38</v>
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="n">
         <f aca="false">ROUND(AVERAGE(B21,C21,D21),2)</f>
         <v>31</v>
       </c>
-      <c r="B21" s="33" t="n">
+      <c r="B21" s="32" t="n">
         <f aca="false">D9+B11</f>
         <v>30</v>
       </c>
-      <c r="C21" s="35" t="n">
+      <c r="C21" s="34" t="n">
         <f aca="false">D10+B11</f>
         <v>31</v>
       </c>
-      <c r="D21" s="36" t="n">
+      <c r="D21" s="35" t="n">
         <f aca="false">D11+B11</f>
         <v>32</v>
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37" t="n">
         <f aca="false">ROUND(AVERAGE(B22,C22,D22),2)</f>
         <v>27.67</v>
       </c>
-      <c r="B22" s="33" t="n">
+      <c r="B22" s="32" t="n">
         <f aca="false">D9+B12</f>
         <v>22</v>
       </c>
-      <c r="C22" s="35" t="n">
+      <c r="C22" s="34" t="n">
         <f aca="false">D10+B10</f>
         <v>37</v>
       </c>
-      <c r="D22" s="36" t="n">
+      <c r="D22" s="35" t="n">
         <f aca="false">D11+B12</f>
         <v>24</v>
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="n">
         <f aca="false">ROUND(AVERAGE(B23,C23,D23),2)</f>
         <v>22</v>
       </c>
-      <c r="B23" s="33" t="n">
+      <c r="B23" s="32" t="n">
         <f aca="false">D9+B13</f>
         <v>21</v>
       </c>
-      <c r="C23" s="35" t="n">
+      <c r="C23" s="34" t="n">
         <f aca="false">D10+B13</f>
         <v>22</v>
       </c>
-      <c r="D23" s="36" t="n">
+      <c r="D23" s="35" t="n">
         <f aca="false">D11+B13</f>
         <v>23</v>
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="n">
         <f aca="false">ROUND(AVERAGE(B24,C24,D24),2)</f>
         <v>28</v>
       </c>
-      <c r="B24" s="33" t="n">
+      <c r="B24" s="32" t="n">
         <f aca="false">D9+B14</f>
         <v>27</v>
       </c>
-      <c r="C24" s="35" t="n">
+      <c r="C24" s="34" t="n">
         <f aca="false">D10+B14</f>
         <v>28</v>
       </c>
-      <c r="D24" s="36" t="n">
+      <c r="D24" s="35" t="n">
         <f aca="false">D11+B14</f>
         <v>29</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(A19:A24), 2)</f>
         <v>29.95</v>
@@ -2339,14 +2327,14 @@
         <f aca="false">ROUND(AVERAGE(D19:D24), 2)</f>
         <v>30.17</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(A19:A24)/100,2)</f>
         <v>0.3</v>
@@ -2363,32 +2351,32 @@
         <f aca="false">ROUND(AVERAGE(D19:D24)/100,2)</f>
         <v>0.3</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="n">
         <f aca="false">C9</f>
         <v>0.05</v>
       </c>
-      <c r="B30" s="41" t="n">
+      <c r="B30" s="39" t="n">
         <f aca="false">C9</f>
         <v>0.05</v>
       </c>
-      <c r="C30" s="41" t="n">
+      <c r="C30" s="39" t="n">
         <f aca="false">C9</f>
         <v>0.05</v>
       </c>
-      <c r="D30" s="41" t="n">
+      <c r="D30" s="39" t="n">
         <f aca="false">C9</f>
         <v>0.05</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="n">
         <f aca="false">IF(A29&gt;A30,1,0)</f>
         <v>1</v>
@@ -2405,7 +2393,7 @@
         <f aca="false">IF(D29&gt;D30,1,0)</f>
         <v>1</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2415,7 +2403,7 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="str">
         <f aca="false">IF(A31=0,"Down","Up")</f>
         <v>Up</v>
@@ -2432,153 +2420,153 @@
         <f aca="false">IF(D31=0,"Down","Up")</f>
         <v>Up</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
+    <row r="37" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
+    <row r="38" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="n">
         <f aca="false">A19</f>
         <v>34</v>
       </c>
-      <c r="B39" s="33" t="n">
+      <c r="B39" s="32" t="n">
         <f aca="false">B19</f>
         <v>33</v>
       </c>
-      <c r="C39" s="35" t="n">
+      <c r="C39" s="34" t="n">
         <f aca="false">C19</f>
         <v>34</v>
       </c>
-      <c r="D39" s="36" t="n">
+      <c r="D39" s="35" t="n">
         <f aca="false">D19</f>
         <v>35</v>
       </c>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="n">
         <f aca="false">A20</f>
         <v>37</v>
       </c>
-      <c r="B40" s="33" t="n">
+      <c r="B40" s="32" t="n">
         <f aca="false">B20</f>
         <v>36</v>
       </c>
-      <c r="C40" s="35" t="n">
+      <c r="C40" s="34" t="n">
         <f aca="false">C20</f>
         <v>37</v>
       </c>
-      <c r="D40" s="36" t="n">
+      <c r="D40" s="35" t="n">
         <f aca="false">D20</f>
         <v>38</v>
       </c>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="37" t="n">
         <f aca="false">A21</f>
         <v>31</v>
       </c>
-      <c r="B41" s="33" t="n">
+      <c r="B41" s="32" t="n">
         <f aca="false">B21</f>
         <v>30</v>
       </c>
-      <c r="C41" s="35" t="n">
+      <c r="C41" s="34" t="n">
         <f aca="false">C21</f>
         <v>31</v>
       </c>
-      <c r="D41" s="36" t="n">
+      <c r="D41" s="35" t="n">
         <f aca="false">D21</f>
         <v>32</v>
       </c>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="37" t="n">
         <f aca="false">A22</f>
         <v>27.67</v>
       </c>
-      <c r="B42" s="33" t="n">
+      <c r="B42" s="32" t="n">
         <f aca="false">B22</f>
         <v>22</v>
       </c>
-      <c r="C42" s="35" t="n">
+      <c r="C42" s="34" t="n">
         <f aca="false">C22</f>
         <v>37</v>
       </c>
-      <c r="D42" s="36" t="n">
+      <c r="D42" s="35" t="n">
         <f aca="false">D22</f>
         <v>24</v>
       </c>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="37" t="n">
         <f aca="false">A23</f>
         <v>22</v>
       </c>
-      <c r="B43" s="33" t="n">
+      <c r="B43" s="32" t="n">
         <f aca="false">B23</f>
         <v>21</v>
       </c>
-      <c r="C43" s="35" t="n">
+      <c r="C43" s="34" t="n">
         <f aca="false">C23</f>
         <v>22</v>
       </c>
-      <c r="D43" s="36" t="n">
+      <c r="D43" s="35" t="n">
         <f aca="false">D23</f>
         <v>23</v>
       </c>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="37" t="n">
         <f aca="false">A24</f>
         <v>28</v>
       </c>
-      <c r="B44" s="33" t="n">
+      <c r="B44" s="32" t="n">
         <f aca="false">B24</f>
         <v>27</v>
       </c>
-      <c r="C44" s="35" t="n">
+      <c r="C44" s="34" t="n">
         <f aca="false">C24</f>
         <v>28</v>
       </c>
-      <c r="D44" s="36" t="n">
+      <c r="D44" s="35" t="n">
         <f aca="false">D24</f>
         <v>29</v>
       </c>
@@ -2590,18 +2578,18 @@
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="s">
+    <row r="47" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="40" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="n">
         <f aca="false">ABS(ROUND(A39-A40,2))</f>
         <v>3</v>
@@ -2621,7 +2609,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="24"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="n">
         <f aca="false">ABS(ROUND(A40-A41,2))</f>
         <v>6</v>
@@ -2640,7 +2628,7 @@
       </c>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="n">
         <f aca="false">ABS(ROUND(A41-A42,2))</f>
         <v>3.33</v>
@@ -2659,7 +2647,7 @@
       </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="n">
         <f aca="false">ABS(ROUND(A42-A43,2))</f>
         <v>5.67</v>
@@ -2678,7 +2666,7 @@
       </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="n">
         <f aca="false">ABS(ROUND(A43-A44,2))</f>
         <v>6</v>
@@ -2697,7 +2685,7 @@
       </c>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="n">
         <f aca="false">ABS(ROUND(A44-A44,2))</f>
         <v>0</v>
@@ -2722,21 +2710,21 @@
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="10"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="29" t="s">
+    <row r="56" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="40" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="n">
         <f aca="false">ABS(ROUND(A39-A39,2))</f>
         <v>0</v>
@@ -2754,11 +2742,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="n">
         <f aca="false">ABS(ROUND(A40-A39,2))</f>
         <v>3</v>
@@ -2776,11 +2764,11 @@
         <v>3</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="n">
         <f aca="false">ABS(ROUND(A41-A40,2))</f>
         <v>6</v>
@@ -2799,7 +2787,7 @@
       </c>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="n">
         <f aca="false">ABS(ROUND(A42-A41,2))</f>
         <v>3.33</v>
@@ -2818,7 +2806,7 @@
       </c>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="n">
         <f aca="false">ABS(ROUND(A43-A42,2))</f>
         <v>5.67</v>
@@ -2837,7 +2825,7 @@
       </c>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="n">
         <f aca="false">ABS(ROUND(A44-A43,2))</f>
         <v>6</v>
@@ -2862,7 +2850,7 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="18" t="n">
         <f aca="false">ROUND(AVERAGE(A48:A53),2)</f>
         <v>4</v>
@@ -2879,7 +2867,7 @@
         <f aca="false">ROUND(AVERAGE(D48:D53),2)</f>
         <v>4</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="38" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="24"/>
@@ -2889,7 +2877,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="24"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="18" t="n">
         <f aca="false">ROUND(AVERAGE(A48:A53)/100,2)</f>
         <v>0.04</v>
@@ -2906,32 +2894,32 @@
         <f aca="false">ROUND(AVERAGE(D48:D53)/100,2)</f>
         <v>0.04</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="18" t="n">
         <f aca="false">C10</f>
         <v>0.05</v>
       </c>
-      <c r="B68" s="44" t="n">
+      <c r="B68" s="42" t="n">
         <f aca="false">C10</f>
         <v>0.05</v>
       </c>
-      <c r="C68" s="44" t="n">
+      <c r="C68" s="42" t="n">
         <f aca="false">C10</f>
         <v>0.05</v>
       </c>
-      <c r="D68" s="44" t="n">
+      <c r="D68" s="42" t="n">
         <f aca="false">C10</f>
         <v>0.05</v>
       </c>
-      <c r="E68" s="45" t="s">
+      <c r="E68" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="19" t="n">
         <f aca="false">IF(A67&gt;A68,1,0)</f>
         <v>0</v>
@@ -2948,7 +2936,7 @@
         <f aca="false">IF(D67&gt;D68,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2958,7 +2946,7 @@
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="10"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="str">
         <f aca="false">IF(A69=0,"Down","Up")</f>
         <v>Down</v>
@@ -2975,7 +2963,7 @@
         <f aca="false">IF(D69=0,"Down","Up")</f>
         <v>Down</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E72" s="38" t="s">
         <v>31</v>
       </c>
     </row>
